--- a/testData/Userdata.xlsx
+++ b/testData/Userdata.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fullstack Selenium in Java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavan\restAssuredTraining\PetStoreAutomation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF8B60E-6F90-4AF5-B1D7-363B3EB8AB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E65099-367B-4043-98C2-1CDC1656E877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8153E25F-2BFE-4088-93CC-A4AD6C829B96}"/>
+    <workbookView xWindow="5040" yWindow="3146" windowWidth="22303" windowHeight="11974" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -38,70 +27,70 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t xml:space="preserve">UserID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserName </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FirstName </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LastName </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password </t>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
   <si>
     <t>Phone</t>
   </si>
   <si>
+    <t>testuser1</t>
+  </si>
+  <si>
+    <t>testuser2</t>
+  </si>
+  <si>
+    <t>testuser3</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>a@gmail.com</t>
+  </si>
+  <si>
+    <t>b@gmail.com</t>
+  </si>
+  <si>
+    <t>c@gmail.com</t>
+  </si>
+  <si>
+    <t>test@1</t>
+  </si>
+  <si>
+    <t>test@2</t>
+  </si>
+  <si>
+    <t>test@3</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Canedy</t>
+  </si>
+  <si>
     <t>Kom</t>
   </si>
   <si>
-    <t xml:space="preserve">testuser1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">John </t>
-  </si>
-  <si>
-    <t>Canedy</t>
-  </si>
-  <si>
-    <t>a@gmail.com</t>
-  </si>
-  <si>
-    <t>test@1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testuser2 </t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>b@gmail.com</t>
-  </si>
-  <si>
-    <t>test@2</t>
-  </si>
-  <si>
-    <t>test@3</t>
-  </si>
-  <si>
-    <t>c@gmail.com</t>
-  </si>
-  <si>
     <t>Steve</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>testuser3</t>
   </si>
 </sst>
 </file>
@@ -117,23 +106,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,19 +165,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -222,7 +211,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -234,7 +223,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -281,23 +270,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -333,23 +305,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,123 +456,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1AB281-AF8C-4F13-86E8-CFB5AA6098AC}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="3">
+    <row r="2" spans="1:7" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2">
         <v>1010</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1234567897</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
+        <v>1020</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1234567897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
+        <v>1030</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2">
         <v>1234567897</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="3">
-        <v>1020</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1234567897</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="3">
-        <v>1030</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1234567897</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="F5" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{829335F2-633F-4D25-8FFB-049CCB942F5F}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{172A33E2-D14E-4417-A492-575B2A5FC331}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{DB07D82A-BEF1-49DC-AF9B-8734672EB150}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{214F8024-964A-4197-BA55-BC95AF1C4A91}"/>
-  </hyperlinks>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>